--- a/SHIT1.xlsx
+++ b/SHIT1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SimSoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4343,8 +4343,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="R324" sqref="R324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,7 +6010,7 @@
         <v>1106</v>
       </c>
       <c r="R29" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>1106</v>
       </c>
       <c r="R30" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -8917,7 +8917,7 @@
         <v>1111</v>
       </c>
       <c r="R80" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -20599,7 +20599,7 @@
         <v>1129</v>
       </c>
       <c r="R285" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -21622,7 +21622,7 @@
         <v>1129</v>
       </c>
       <c r="R303" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
@@ -22357,7 +22357,7 @@
         <v>1131</v>
       </c>
       <c r="R316" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
@@ -22984,7 +22984,7 @@
         <v>1131</v>
       </c>
       <c r="R327" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
@@ -23383,12 +23383,12 @@
         <v>1131</v>
       </c>
       <c r="R334" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335">
-        <f t="shared" si="5"/>
+        <f>SUM(A334+1)</f>
         <v>333</v>
       </c>
       <c r="B335" t="s">
@@ -26119,7 +26119,7 @@
         <v>1135</v>
       </c>
       <c r="R382" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -27031,7 +27031,7 @@
         <v>856</v>
       </c>
       <c r="R398" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
@@ -27544,7 +27544,7 @@
         <v>856</v>
       </c>
       <c r="R407" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
@@ -29140,7 +29140,7 @@
         <v>1139</v>
       </c>
       <c r="R435" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
@@ -29308,7 +29308,7 @@
         <v>1139</v>
       </c>
       <c r="R438" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -29362,7 +29362,7 @@
         <v>1139</v>
       </c>
       <c r="R439" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
@@ -29419,7 +29419,7 @@
         <v>1139</v>
       </c>
       <c r="R440" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
@@ -32041,7 +32041,7 @@
         <v>1143</v>
       </c>
       <c r="R486" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
@@ -32155,7 +32155,7 @@
         <v>1143</v>
       </c>
       <c r="R488" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
@@ -32217,7 +32217,7 @@
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490">
-        <f t="shared" si="7"/>
+        <f>SUM(A489+1)</f>
         <v>488</v>
       </c>
       <c r="B490" t="s">
@@ -33409,7 +33409,7 @@
         <v>1145</v>
       </c>
       <c r="R510" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.25">
@@ -33637,7 +33637,7 @@
         <v>1145</v>
       </c>
       <c r="R514" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
